--- a/assets/scripts/data/excel/Item.xlsx
+++ b/assets/scripts/data/excel/Item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -75,11 +75,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>cs</t>
   </si>
   <si>
+    <t>c</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -92,6 +95,12 @@
     <t>Quality</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -108,6 +117,18 @@
   </si>
   <si>
     <t>品质</t>
+  </si>
+  <si>
+    <t>icon资源名称</t>
+  </si>
+  <si>
+    <t>物品tip描述</t>
+  </si>
+  <si>
+    <t>树枝</t>
+  </si>
+  <si>
+    <t>圆环</t>
   </si>
 </sst>
 </file>
@@ -120,14 +141,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,12 +294,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -596,48 +610,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -647,97 +664,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,21 +1107,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="13.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="20.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="37.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1120,61 +1136,105 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
+      </c>
+      <c r="E5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
